--- a/test/scenarios/Withdrawal_Test.xlsx
+++ b/test/scenarios/Withdrawal_Test.xlsx
@@ -285,29 +285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -326,6 +308,24 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,192 +1486,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.33203125" style="2"/>
+    <col min="1" max="3" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.6" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="4" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.85" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.85" customHeight="1" thickBot="1">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="7">
         <v>9.80361622402611E+18</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>9.80361622402611E+18</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>30000000000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>9.80361622402611E+18</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <v>30000000000</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <f>E4-C4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="8">
         <f>F4-D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="6">
         <f>IF(G4&gt;0,G4*0.001,0)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="7">
         <f>IF(H4&gt;0,H4*0.001,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="7">
         <f>IF(A4&lt;B4,(E4-G4)/B4*A4,0)</f>
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="8">
         <f>IF(A4&lt;B4,(F4-J4)/B4*A4,0)</f>
         <v>10000000000</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="7">
         <v>6.53574414935074E+18</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>6.53574414935074E+18</v>
       </c>
-      <c r="D5" s="13">
-        <v>19999996238</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="7">
+        <v>19999996249</v>
+      </c>
+      <c r="E5" s="7">
         <v>6.53574414935074E+18</v>
       </c>
-      <c r="F5" s="13">
-        <v>30223941522</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="7">
+        <v>30193317188</v>
+      </c>
+      <c r="G5" s="7">
         <f>E5-C5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="8">
         <f>F5-D5</f>
-        <v>10223945284</v>
-      </c>
-      <c r="I5" s="12">
+        <v>10193320939</v>
+      </c>
+      <c r="I5" s="6">
         <f>IF(G5&gt;0,G5*0.001,0)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="7">
         <f>IF(H5&gt;0,H5*0.01,0)</f>
-        <v>102239452.84</v>
-      </c>
-      <c r="K5" s="13">
+        <v>101933209.39</v>
+      </c>
+      <c r="K5" s="7">
         <f>IF(A5&lt;B5,(E5-G5)/B5*A5,0)</f>
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="8">
         <f>IF(A5&lt;B5,(F5-J5)/B5*A5,0)</f>
-        <v>15060851034.580002</v>
-      </c>
-      <c r="M5" s="2">
+        <v>15045691989.305</v>
+      </c>
+      <c r="M5" s="1">
         <f>J5*A5/B5</f>
-        <v>51119726.420000002</v>
+        <v>50966604.695</v>
       </c>
     </row>
   </sheetData>
